--- a/results/tableA1_panel_bac_test_primary.xlsx
+++ b/results/tableA1_panel_bac_test_primary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>eq_mix</t>
   </si>
@@ -43,37 +43,40 @@
     <t>['hour']</t>
   </si>
   <si>
-    <t>(0.24)</t>
+    <t>(0.37)</t>
+  </si>
+  <si>
+    <t>(0.3)</t>
   </si>
   <si>
     <t>['year', 'hour']</t>
   </si>
   <si>
-    <t>(0.11)</t>
-  </si>
-  <si>
-    <t>(0.14)</t>
+    <t>(0.31)</t>
   </si>
   <si>
     <t>['year', 'weekend', 'hour']</t>
   </si>
   <si>
-    <t>(0.05)</t>
+    <t>(0.36)</t>
+  </si>
+  <si>
+    <t>(0.34)</t>
   </si>
   <si>
     <t>['year', 'state', 'hour']</t>
   </si>
   <si>
-    <t>(0.19)</t>
-  </si>
-  <si>
-    <t>(0.3)</t>
+    <t>(0.46)</t>
+  </si>
+  <si>
+    <t>(0.35)</t>
   </si>
   <si>
     <t>['year', 'state', 'weekend', 'hour']</t>
   </si>
   <si>
-    <t>(0.21)</t>
+    <t>(0.51)</t>
   </si>
 </sst>
 </file>
@@ -468,16 +471,16 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -514,16 +517,16 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -557,19 +560,19 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
